--- a/Souq/src/price/Souq/excel_17_carteiras_e_chaveiros.xlsx
+++ b/Souq/src/price/Souq/excel_17_carteiras_e_chaveiros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Carteiras e Chaveiros</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/carteiras-e-chaveiros.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/carteiras-e-chaveiros.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CHAVEIRO RAJA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/chaveiro-raja-02-11-03-100-035.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>94,00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
